--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IP.XLSX
@@ -172,10 +172,10 @@
     <t>IP</t>
   </si>
   <si>
-    <t>JAIRO SILVA BASTOS</t>
+    <t>MARCUS VINICIUS ROSA SANTANA</t>
   </si>
   <si>
-    <t>Matr.: 2679</t>
+    <t>Matr.: 2918</t>
   </si>
   <si>
     <r>
@@ -6324,7 +6324,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>JAIRO SILVA BASTOS</v>
+        <v>MARCUS VINICIUS ROSA SANTANA</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6413,7 +6413,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 2679</v>
+        <v>Matr.: 2918</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>
